--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_2_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_2_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.08000000000048</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.394011912938343e-16</v>
+        <v>2.589441456851677e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44.7679545797947</v>
+        <v>44.21298096435004</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.01304634346225, 54.52286281612716]</t>
+          <t>[33.24697231653519, 55.178989612164884]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.679289766783733</v>
+        <v>1.867974010242579</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4277107755052718, 1.9308687580621946]</t>
+          <t>[1.603816069400195, 2.132131951084964]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.57142736979293</v>
+        <v>63.36649422119477</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[62.41730065763623, 74.72555408194962]</t>
+          <t>[57.17275084257348, 69.56023759981606]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.37693693693729</v>
+        <v>17.70108108108143</v>
       </c>
       <c r="X2" t="n">
-        <v>17.37273273273307</v>
+        <v>16.64204204204238</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.38114114114151</v>
+        <v>18.76012012012049</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.394011912938343e-16</v>
+        <v>2.589441456851677e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>49.76238878342406</v>
+        <v>44.92934297195973</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.20558461471656, 60.31919295213157]</t>
+          <t>[34.58542200378896, 55.273263940130505]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.874263485024541</v>
+        <v>-1.886842434588464</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.0881056276112337, -1.6604213424378491]</t>
+          <t>[-2.125842476303003, -1.647842392873926]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>69.3820748351674</v>
+        <v>62.96612689680516</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[63.440032519587156, 75.32411715074764]</t>
+          <t>[57.245981104150204, 68.68627268946011]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.893673673673728</v>
+        <v>6.915915915915964</v>
       </c>
       <c r="X3" t="n">
-        <v>6.107147147147197</v>
+        <v>6.039899899899943</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.680200200200259</v>
+        <v>7.791931931931984</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_2_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_2_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.1900000000005</v>
+        <v>24.89000000000045</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.589441456851677e-16</v>
+        <v>2.283235012082584e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44.21298096435004</v>
+        <v>50.68349316134142</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[33.24697231653519, 55.178989612164884]</t>
+          <t>[41.88529365260782, 59.48169267007503]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.33066907387547e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.33066907387547e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.867974010242579</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.603816069400195, 2.132131951084964]</t>
+          <t>[1.3396581285578097, 1.717026615475504]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.36649422119477</v>
+        <v>62.61518959567684</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[57.17275084257348, 69.56023759981606]</t>
+          <t>[56.91024676454275, 68.32013242681093]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.70108108108143</v>
+        <v>18.83567567567601</v>
       </c>
       <c r="X2" t="n">
-        <v>16.64204204204238</v>
+        <v>18.08822822822855</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.76012012012049</v>
+        <v>19.58312312312348</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.589441456851677e-16</v>
+        <v>2.283235012082584e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.92934297195973</v>
+        <v>48.35425354440122</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.58542200378896, 55.273263940130505]</t>
+          <t>[39.207613371309264, 57.500893717493184]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.886842434588464</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.125842476303003, -1.647842392873926]</t>
+          <t>[2.836553126664658, 3.2642374118380437]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.96612689680516</v>
+        <v>69.06157087930549</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.245981104150204, 68.68627268946011]</t>
+          <t>[63.34872626690484, 74.77441549170615]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.915915915915964</v>
+        <v>11.63831831831837</v>
       </c>
       <c r="X3" t="n">
-        <v>6.039899899899943</v>
+        <v>10.86846846846851</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.791931931931984</v>
+        <v>12.40816816816822</v>
       </c>
     </row>
   </sheetData>
